--- a/DONE/DEL MUNDO, JONAS.xlsx
+++ b/DONE/DEL MUNDO, JONAS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\DONE\DONE ENCODING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -651,17 +651,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -671,6 +668,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1201,7 +1201,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1244,7 +1244,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1308,7 +1308,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1368,7 +1368,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1434,7 +1434,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1497,7 +1497,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1595,7 +1595,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1654,7 +1654,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1719,7 +1719,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1762,7 +1762,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1837,7 +1837,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2023,7 +2023,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2089,7 +2089,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2147,7 +2147,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2213,7 +2213,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2269,7 +2269,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2344,7 +2344,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2387,7 +2387,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2453,7 +2453,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2509,7 +2509,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2984,10 +2984,10 @@
   </sheetPr>
   <dimension ref="A2:K135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A67" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A65" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
+      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3017,14 +3017,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3035,14 +3035,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3055,16 +3055,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3090,18 +3090,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5533,19 +5533,19 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
@@ -5554,7 +5554,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="89" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="88" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold"&amp;12REPUBLIC OF THE PHILIPPINES
 CITY OF TAGAYTAY
@@ -5562,8 +5562,8 @@
     <oddFooter>&amp;L
 PREPARED BY: ___________________
 DATE: &amp;D, &amp;T&amp;C
-CERTIFIED CORRECT BY: &amp;UALMA A. MALABANAN&amp;U
-                                   HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
+CERTIFIED CORRECT BY: &amp;UNANETTE B. SUSA&amp;U
+                                             OIC-HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -5611,14 +5611,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5629,14 +5629,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5649,16 +5649,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5684,18 +5684,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/DONE/DEL MUNDO, JONAS.xlsx
+++ b/DONE/DEL MUNDO, JONAS.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="75">
   <si>
     <t>PERIOD</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>3/9,10/2023</t>
+  </si>
+  <si>
+    <t>4/19,20/2023</t>
   </si>
 </sst>
 </file>
@@ -651,14 +654,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -668,9 +674,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1201,7 +1204,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1244,7 +1247,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1308,7 +1311,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1368,7 +1371,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1434,7 +1437,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1497,7 +1500,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1595,7 +1598,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1654,7 +1657,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1719,7 +1722,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1762,7 +1765,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1837,7 +1840,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2023,7 +2026,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2089,7 +2092,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2147,7 +2150,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2213,7 +2216,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2269,7 +2272,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2344,7 +2347,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2387,7 +2390,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2453,7 +2456,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2509,7 +2512,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2987,7 +2990,7 @@
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A65" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
+      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3017,14 +3020,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3035,14 +3038,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3055,16 +3058,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3090,18 +3093,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3148,7 +3151,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>52.75</v>
+        <v>54</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3158,7 +3161,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>62.75</v>
+        <v>62</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4636,23 +4639,35 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="A80" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H80" s="39"/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H80" s="39">
+        <v>2</v>
+      </c>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="20"/>
+      <c r="K80" s="20" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
+      <c r="A81" s="40">
+        <v>45047</v>
+      </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
       <c r="D81" s="39"/>
@@ -5533,17 +5548,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5611,14 +5626,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5629,14 +5644,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5649,16 +5664,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5684,18 +5699,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
